--- a/王欣平/测试用例_王欣平.xlsx
+++ b/王欣平/测试用例_王欣平.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JuniorSecond\OnePillTraining\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JuniorSecond\OnePillTraining\OnePillTest_2020\王欣平\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB0B0F-015C-49F1-9837-69829BF9B270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80577FC5-5DB1-43E9-AEA3-99E091302364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{85AEE31A-9795-4164-8A49-6C0EA3CE26CE}"/>
   </bookViews>
@@ -1737,19 +1737,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C836A582-90C3-45F0-8359-3E0BF18D28AE}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C63" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="2"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.9140625" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.4140625" customWidth="1"/>
+    <col min="7" max="7" width="34.75" customWidth="1"/>
     <col min="8" max="8" width="28.58203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="31" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>98</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="32" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>98</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="33" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>98</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="34" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>98</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="35" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>98</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="36" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>98</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="37" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>98</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="38" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>98</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="39" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>98</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="40" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>98</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="41" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>98</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="42" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>98</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="43" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>98</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="44" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>98</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="45" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>98</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="46" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>98</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="47" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>98</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="48" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>98</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="49" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="50" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>98</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="51" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>98</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="52" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>98</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="53" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>98</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="54" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>98</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="55" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>98</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="56" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>98</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="57" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>98</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="58" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>98</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="59" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>98</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="60" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>98</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="61" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>98</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="62" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>98</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="63" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>98</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="64" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>98</v>
